--- a/Guild Digital/Example CHT application/forms/app/death_report.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/death_report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="120">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -228,6 +228,9 @@
     <t xml:space="preserve">Provide any other relevant information related to the death </t>
   </si>
   <si>
+    <t xml:space="preserve">multiline</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
@@ -398,7 +401,7 @@
     <t xml:space="preserve">instance_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Death Report Form</t>
+    <t xml:space="preserve">Death Report</t>
   </si>
   <si>
     <t xml:space="preserve">death_report</t>
@@ -418,7 +421,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -468,6 +471,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -557,7 +566,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -590,11 +599,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -745,13 +758,13 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="B19" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>
@@ -1688,7 +1701,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
@@ -1700,13 +1713,15 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="4"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="5"/>
@@ -1761,15 +1776,15 @@
         <v>12</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -1794,13 +1809,13 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1826,51 +1841,51 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" s="12" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>72</v>
+    <row r="31" s="13" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>73</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1896,51 +1911,51 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
-        <v>72</v>
+    <row r="33" s="17" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="s">
+        <v>73</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="14" t="s">
+      <c r="B33" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14" t="s">
+      <c r="C33" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1968,17 +1983,17 @@
     </row>
     <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -2002,34 +2017,34 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" s="17" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
-        <v>72</v>
+    <row r="36" s="18" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="18" t="s">
+        <v>73</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="17" t="s">
+      <c r="B36" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="C36" s="18" t="s">
         <v>90</v>
       </c>
+      <c r="F36" s="18" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -2054,18 +2069,18 @@
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -2088,56 +2103,56 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" s="21" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="18" t="s">
-        <v>72</v>
+    <row r="39" s="22" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="19" t="s">
+        <v>73</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="20"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -2165,7 +2180,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -29576,7 +29591,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.43"/>
@@ -29584,69 +29599,69 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>102</v>
+      <c r="A1" s="23" t="s">
+        <v>103</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>104</v>
+      <c r="A3" s="26" t="s">
+        <v>105</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>107</v>
       </c>
+      <c r="C3" s="26" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>64</v>
@@ -29695,68 +29710,67 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="26" t="str">
-        <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-11-13  13-15</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="C2" s="27" t="n">
+        <v>43831</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>118</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Guild Digital/Example CHT application/forms/app/death_report.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/death_report.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="119">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -228,9 +228,6 @@
     <t xml:space="preserve">Provide any other relevant information related to the death </t>
   </si>
   <si>
-    <t xml:space="preserve">multiline</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
@@ -294,7 +291,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">${</t>
     </r>
@@ -304,7 +300,6 @@
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">other_comments</t>
     </r>
@@ -314,7 +309,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">}!=’’</t>
     </r>
@@ -473,12 +467,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -488,9 +476,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -599,15 +592,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -637,6 +626,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -752,19 +745,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B19" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>
@@ -1701,7 +1694,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>62</v>
       </c>
@@ -1713,15 +1706,13 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="4"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="5"/>
@@ -1776,15 +1767,15 @@
         <v>12</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -1809,13 +1800,13 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1841,51 +1832,51 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" s="13" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
-        <v>73</v>
+    <row r="31" s="12" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>72</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11" t="s">
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-    </row>
-    <row r="32" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1911,51 +1902,51 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" s="17" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
-        <v>73</v>
+    <row r="33" s="16" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="s">
+        <v>72</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15" t="s">
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+    </row>
+    <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-    </row>
-    <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1983,17 +1974,17 @@
     </row>
     <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -2019,32 +2010,32 @@
     </row>
     <row r="36" s="18" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="F36" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="18" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
@@ -2069,18 +2060,18 @@
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -2105,18 +2096,18 @@
     </row>
     <row r="39" s="22" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
@@ -2141,18 +2132,18 @@
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -2180,7 +2171,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -29581,7 +29572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -29591,7 +29582,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.43"/>
@@ -29600,7 +29591,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -29609,7 +29600,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
@@ -29636,10 +29627,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>38</v>
@@ -29647,21 +29638,21 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>64</v>
@@ -29704,7 +29695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -29714,26 +29705,26 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
@@ -29758,19 +29749,19 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="27" t="n">
         <v>43831</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
